--- a/ajax/01.AJAX/Day01_AJAX入门/06-作业/01_客观题/Day01_AJAX入门.xlsx
+++ b/ajax/01.AJAX/Day01_AJAX入门/06-作业/01_客观题/Day01_AJAX入门.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\备课代码\0_Ajax\学生用\Day01_AJAX入门\06-作业\01_客观题\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\Web\ajax\01.AJAX\Day01_AJAX入门\06-作业\01_客观题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A82F65-2B21-4F2D-8B3E-7BD7ABB19EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF86302A-C390-4CA1-8FC4-86B8CBE6BF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="0" windowWidth="18900" windowHeight="11028" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表11" sheetId="1" r:id="rId1"/>
@@ -48,203 +48,204 @@
     <t>选项4</t>
   </si>
   <si>
+    <t>答案解析</t>
+  </si>
+  <si>
+    <t>分值</t>
+  </si>
+  <si>
+    <t>单选题</t>
+  </si>
+  <si>
+    <t>A、协议</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D、资源路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、响应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B、请求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C、axios</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D、请求报文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、GET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B、POST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C、DELETE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D、PUATC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B、params</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C、url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D、method</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、请求报文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B、响应报文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、49000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B、200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C、10000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D、699</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C、响应状态码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、浏览器与浏览器通信数据的方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B、浏览器与服务器通信的技术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C、本机电脑和其他电脑交互数据的方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D、就是 axios 库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、AJAX 就是 axios</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B、axios 和 AJAX 没关系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C、data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、then</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B、catch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D、data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C、AJAX 是对 axios 进行了封装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B、域名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D、响应体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C、地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D、AJAX 是浏览器通过 XMLHttpRequest 对象与服务器通信，axios 是第三方库对原生 XMLHttpRequest 相关代码进行封装，使用更简单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、什么是 AJAX（B ）？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、AJAX 和 axios 关系（ D）？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、以下哪个不是 url 组成部分（ D）？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、axios 传参要求用查询参数，选择哪个配置项（B ）？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、axios 传参要求用请求体， 选择哪个配置项（A ）？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、以下哪个不是 AJAX 请求的方式（D ）？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、axios 接收错误结果的方法叫（B ）？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、服务器返回数据的动作叫（ A）？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、以下哪个是 http 响应状态码（B ）？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、以下哪个是浏览器发给服务器的（ A）？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>正确答案</t>
-  </si>
-  <si>
-    <t>答案解析</t>
-  </si>
-  <si>
-    <t>分值</t>
-  </si>
-  <si>
-    <t>单选题</t>
-  </si>
-  <si>
-    <t>A、协议</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D、资源路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A、响应</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B、请求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C、axios</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D、请求报文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A、GET</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B、POST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C、DELETE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D、PUATC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A、data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B、params</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C、url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D、method</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8、以下哪个是浏览器发给服务器的（ ）？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A、请求报文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B、响应报文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A、49000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B、200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C、10000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D、699</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C、响应状态码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、什么是 AJAX（ ）？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A、浏览器与浏览器通信数据的方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B、浏览器与服务器通信的技术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C、本机电脑和其他电脑交互数据的方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D、就是 axios 库</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、AJAX 和 axios 关系（ ）？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A、AJAX 就是 axios</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B、axios 和 AJAX 没关系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A、url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C、data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A、then</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B、catch</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D、data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9、服务器返回数据的动作叫（ ）？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C、AJAX 是对 axios 进行了封装</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、以下哪个不是 url 组成部分（ ）？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B、域名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、axios 传参要求用查询参数，选择哪个配置项（ ）？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、axios 传参要求用请求体， 选择哪个配置项（ ）？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、以下哪个不是 AJAX 请求的方式（ ）？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、axios 接收错误结果的方法叫（ ）？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D、响应体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10、以下哪个是 http 响应状态码（ ）？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C、地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D、AJAX 是浏览器通过 XMLHttpRequest 对象与服务器通信，axios 是第三方库对原生 XMLHttpRequest 相关代码进行封装，使用更简单</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -587,22 +588,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="30.6" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="31.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.34765625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.34765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.0625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.9375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="112.6875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.25" style="1" customWidth="1"/>
-    <col min="10" max="1024" width="10.59765625" style="1" customWidth="1"/>
+    <col min="10" max="1024" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,33 +626,33 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -656,216 +660,216 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G7" s="2"/>
       <c r="I7" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -875,6 +879,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>